--- a/WebsiteCreator/spreadsheets/MA-S3.xlsx
+++ b/WebsiteCreator/spreadsheets/MA-S3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/491e2628f664332b/Documents_Charl/Computer_Technical/Programming_GitHub/AustralianSchoolMaths/WebsiteCreator/spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4803" documentId="11_F25DC773A252ABDACC10483119D84B8A5ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{506C8072-70D1-4FEB-81CE-0722BFD5FFDF}"/>
+  <xr:revisionPtr revIDLastSave="4807" documentId="11_F25DC773A252ABDACC10483119D84B8A5ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79E98EB8-7A40-4E98-80B2-B8C47B029178}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TableOfContents" sheetId="15" r:id="rId1"/>
@@ -46,7 +46,7 @@
     <definedName name="uniform_selector_values">_xlfn.ANCHORARRAY(Workings_Uniform!$B$5)</definedName>
     <definedName name="uniform_start_value">Uniform!$C$15</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -6201,163 +6201,163 @@
                   <c:v>750.00000000000011</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>999.99999999999977</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>999.99999999999977</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1104.9999999999998</c:v>
+                  <c:v>2600</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1210</c:v>
+                  <c:v>2700</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1314.9999999999995</c:v>
+                  <c:v>2800.0000000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1419.9999999999995</c:v>
+                  <c:v>2900.0000000000005</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1524.9999999999998</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1629.9999999999998</c:v>
+                  <c:v>3100</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1734.9999999999998</c:v>
+                  <c:v>3200</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1840</c:v>
+                  <c:v>3300</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1945</c:v>
+                  <c:v>3399.9999999999995</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2049.9999999999995</c:v>
+                  <c:v>3500</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2154.9999999999995</c:v>
+                  <c:v>3600</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2260</c:v>
+                  <c:v>3700</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2364.9999999999995</c:v>
+                  <c:v>3800</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2470</c:v>
+                  <c:v>3900</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2574.9999999999995</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2680</c:v>
+                  <c:v>4100</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2784.9999999999995</c:v>
+                  <c:v>4200</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2890.0000000000005</c:v>
+                  <c:v>4300.0000000000009</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2995</c:v>
+                  <c:v>4400.0000000000009</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3100.0000000000005</c:v>
+                  <c:v>4500.0000000000009</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3205</c:v>
+                  <c:v>4600.0000000000009</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3310.0000000000009</c:v>
+                  <c:v>4700.0000000000009</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3415.0000000000005</c:v>
+                  <c:v>4800.0000000000009</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3520.0000000000009</c:v>
+                  <c:v>4900.0000000000009</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3625.0000000000005</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3730.0000000000005</c:v>
+                  <c:v>5100</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3835.0000000000005</c:v>
+                  <c:v>5200</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3940.0000000000009</c:v>
+                  <c:v>5300</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4045.0000000000009</c:v>
+                  <c:v>5400</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4150.0000000000009</c:v>
+                  <c:v>5500</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4255.0000000000009</c:v>
+                  <c:v>5600.0000000000009</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4360.0000000000009</c:v>
+                  <c:v>5700.0000000000009</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4465.0000000000009</c:v>
+                  <c:v>5800.0000000000009</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4570.0000000000009</c:v>
+                  <c:v>5900.0000000000009</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4675.0000000000018</c:v>
+                  <c:v>6000.0000000000009</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4780.0000000000018</c:v>
+                  <c:v>6100.0000000000009</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4885.0000000000018</c:v>
+                  <c:v>6200.0000000000009</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4990.0000000000018</c:v>
+                  <c:v>6300.0000000000009</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>5095.0000000000018</c:v>
+                  <c:v>6400.0000000000009</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>5200.0000000000027</c:v>
+                  <c:v>6500.0000000000009</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>5305.0000000000018</c:v>
+                  <c:v>6600.0000000000018</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>5410.0000000000018</c:v>
+                  <c:v>6700.0000000000018</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>5515.0000000000018</c:v>
+                  <c:v>6800.0000000000018</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>5620.0000000000027</c:v>
+                  <c:v>6900.0000000000018</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>5725.0000000000027</c:v>
+                  <c:v>7000.0000000000018</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>5830.0000000000018</c:v>
+                  <c:v>7100.0000000000018</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>5935.0000000000027</c:v>
+                  <c:v>7200.0000000000018</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>6040.0000000000027</c:v>
+                  <c:v>7300.0000000000018</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>6145.0000000000027</c:v>
+                  <c:v>7400.0000000000018</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>6250</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>6250</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>9250.0000000000127</c:v>
@@ -6378,157 +6378,157 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-">
-                  <c:v>2.3840882014648404E-3</c:v>
+                  <c:v>5.3990966513188063E-2</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-">
-                  <c:v>3.108339764219602E-3</c:v>
+                  <c:v>6.3156561435198655E-2</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-">
-                  <c:v>4.0241139330445116E-3</c:v>
+                  <c:v>7.3406812581656891E-2</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-">
-                  <c:v>5.1730618423228838E-3</c:v>
+                  <c:v>8.4776361308022227E-2</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-">
-                  <c:v>6.6032948606762768E-3</c:v>
+                  <c:v>9.7282269331467511E-2</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-">
-                  <c:v>8.3696891546530226E-3</c:v>
+                  <c:v>0.11092083467945554</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-">
-                  <c:v>1.0534006580763203E-2</c:v>
+                  <c:v>0.12566463678908815</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-">
-                  <c:v>1.3164775575909208E-2</c:v>
+                  <c:v>0.14145996522483878</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-">
-                  <c:v>1.6336873743791409E-2</c:v>
+                  <c:v>0.15822479037038306</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-">
-                  <c:v>2.0130755012470348E-2</c:v>
+                  <c:v>0.17584743029766237</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-">
-                  <c:v>2.4631269306382486E-2</c:v>
+                  <c:v>0.19418605498321292</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-">
-                  <c:v>2.9926032260731268E-2</c:v>
+                  <c:v>0.21306914677571784</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-">
-                  <c:v>3.6103317036217532E-2</c:v>
+                  <c:v>0.2322970047433662</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-">
-                  <c:v>4.3249459914653815E-2</c:v>
+                  <c:v>0.25164434109811712</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-">
-                  <c:v>5.1445795857717774E-2</c:v>
+                  <c:v>0.27086397179833799</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-">
-                  <c:v>6.0765168954564755E-2</c:v>
+                  <c:v>0.28969155276148273</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-">
-                  <c:v>7.1268094569544471E-2</c:v>
+                  <c:v>0.30785126046985295</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-">
-                  <c:v>8.2998683462853398E-2</c:v>
+                  <c:v>0.32506226408408218</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-">
-                  <c:v>9.5980471200316733E-2</c:v>
+                  <c:v>0.34104578863035256</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-">
-                  <c:v>0.11021232645560165</c:v>
+                  <c:v>0.35553252850599715</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-">
-                  <c:v>0.12566463678908815</c:v>
+                  <c:v>0.36827014030332339</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-">
-                  <c:v>0.14227598757521717</c:v>
+                  <c:v>0.37903052615270172</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-">
-                  <c:v>0.15995055652810913</c:v>
+                  <c:v>0.38761661512501422</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-">
-                  <c:v>0.17855644072480606</c:v>
+                  <c:v>0.39386836156854088</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-">
-                  <c:v>0.19792511375148231</c:v>
+                  <c:v>0.3976677055116089</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-">
-                  <c:v>0.21785217703255064</c:v>
+                  <c:v>0.3989422804014327</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-">
-                  <c:v>0.23809952196345452</c:v>
+                  <c:v>0.39766770551160885</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-">
-                  <c:v>0.25839895964984855</c:v>
+                  <c:v>0.39386836156854077</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-">
-                  <c:v>0.27845730543813202</c:v>
+                  <c:v>0.38761661512501405</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-">
-                  <c:v>0.29796282958145476</c:v>
+                  <c:v>0.37903052615270161</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-">
-                  <c:v>0.31659290771089293</c:v>
+                  <c:v>0.36827014030332322</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-">
-                  <c:v>0.33402263020207645</c:v>
+                  <c:v>0.35553252850599693</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-">
-                  <c:v>0.34993406316463388</c:v>
+                  <c:v>0.3410457886303524</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-">
-                  <c:v>0.36402580055756051</c:v>
+                  <c:v>0.32506226408408195</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-">
-                  <c:v>0.37602241116559926</c:v>
+                  <c:v>0.30785126046985267</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-">
-                  <c:v>0.38568336919181617</c:v>
+                  <c:v>0.28969155276148251</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-">
-                  <c:v>0.39281106505576868</c:v>
+                  <c:v>0.27086397179833777</c:v>
                 </c:pt>
                 <c:pt idx="39" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-">
-                  <c:v>0.39725752412951854</c:v>
+                  <c:v>0.25164434109811679</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-">
-                  <c:v>0.39892951445271613</c:v>
+                  <c:v>0.23229700474336587</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-">
-                  <c:v>0.3977917971930241</c:v>
+                  <c:v>0.21306914677571753</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-">
-                  <c:v>0.39386836156854071</c:v>
+                  <c:v>0.19418605498321259</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-">
-                  <c:v>0.38724158378602552</c:v>
+                  <c:v>0.17584743029766201</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-">
-                  <c:v>0.3780493511810093</c:v>
+                  <c:v>0.1582247903703827</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-">
-                  <c:v>0.36648029179111724</c:v>
+                  <c:v>0.14145996522483845</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-">
-                  <c:v>0.35276733986812903</c:v>
+                  <c:v>0.12566463678908782</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-">
-                  <c:v>0.3371799438223802</c:v>
+                  <c:v>0.11092083467945524</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-">
-                  <c:v>0.32001528035959664</c:v>
+                  <c:v>9.7282269331467178E-2</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-">
-                  <c:v>0.30158887407374935</c:v>
+                  <c:v>8.4776361308021936E-2</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-">
-                  <c:v>0.2822250340447619</c:v>
+                  <c:v>7.3406812581656614E-2</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-">
-                  <c:v>0.2622475082437396</c:v>
+                  <c:v>6.3156561435198391E-2</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-">
-                  <c:v>0.24197072451914337</c:v>
+                  <c:v>5.3990966513188063E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>0</c:v>
@@ -8050,7 +8050,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.5307226240226058E-4</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>#N/A</c:v>
@@ -8086,7 +8086,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>#N/A</c:v>
+                  <c:v>2.2499686285702227E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>#N/A</c:v>
@@ -8643,7 +8643,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.84080262095897107</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>#N/A</c:v>
@@ -8673,7 +8673,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.97681948256029971</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>#N/A</c:v>
@@ -15384,10 +15384,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{796FE3CE-BAF6-49DA-B45F-4756C5595AF8}" name="tbl_Uniform" displayName="tbl_Uniform" ref="N23:S55" totalsRowCount="1" headerRowDxfId="49" dataDxfId="48" totalsRowDxfId="47">
   <tableColumns count="6">
@@ -15793,8 +15789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{379EDE0B-8881-46F2-A537-5E9CD009C9A4}">
   <dimension ref="B2:B13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15850,7 +15846,7 @@
   <dimension ref="B2:B3"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19628,8 +19624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7ACF966-92B6-4200-95C4-6DFCF4598438}">
   <dimension ref="B1:S89"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19686,7 +19682,7 @@
         <v>16</v>
       </c>
       <c r="C12" s="49">
-        <v>-3.2</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.35">
@@ -19694,7 +19690,7 @@
         <v>17</v>
       </c>
       <c r="C13" s="49">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="14:19" ht="18.5" x14ac:dyDescent="0.45">
@@ -20533,11 +20529,11 @@
     <row r="47" spans="9:19" x14ac:dyDescent="0.35">
       <c r="I47" s="4" t="str">
         <f>"F(" &amp; TEXT(standard_normal_start_value, "0.0") &amp; ") =  P(X &lt;= " &amp; TEXT(standard_normal_start_value, "0.0") &amp; "): "</f>
-        <v xml:space="preserve">F(-3.2) =  P(X &lt;= -3.2): </v>
+        <v xml:space="preserve">F(-2.0) =  P(X &lt;= -2.0): </v>
       </c>
       <c r="J47" s="29">
         <f>_xlfn.XLOOKUP(standard_normal_start_value, tbl_StandardNormal[x], tbl_StandardNormal[Integral (CDF) by trapezoid rule])</f>
-        <v>3.5307226240226058E-4</v>
+        <v>2.2499686285702227E-2</v>
       </c>
       <c r="N47" s="38">
         <v>-0.8</v>
@@ -20572,11 +20568,11 @@
     <row r="48" spans="9:19" x14ac:dyDescent="0.35">
       <c r="I48" s="4" t="str">
         <f>"F(" &amp; TEXT(standard_normal_end_value, "0.0") &amp; ") =  P(X &lt;= " &amp; TEXT(standard_normal_end_value, "0.0") &amp; "): "</f>
-        <v xml:space="preserve">F(1.0) =  P(X &lt;= 1.0): </v>
+        <v xml:space="preserve">F(2.0) =  P(X &lt;= 2.0): </v>
       </c>
       <c r="J48" s="29">
         <f>_xlfn.XLOOKUP(standard_normal_end_value, tbl_StandardNormal[x], tbl_StandardNormal[Integral (CDF) by trapezoid rule])</f>
-        <v>0.84080262095897107</v>
+        <v>0.97681948256029971</v>
       </c>
       <c r="N48" s="38">
         <v>-0.7</v>
@@ -20611,11 +20607,11 @@
     <row r="49" spans="9:19" x14ac:dyDescent="0.35">
       <c r="I49" s="4" t="str">
         <f>"P(" &amp; TEXT(standard_normal_start_value, "0.0") &amp; " &lt;= X &lt;= " &amp; TEXT(standard_normal_end_value, "0.0") &amp; ")"</f>
-        <v>P(-3.2 &lt;= X &lt;= 1.0)</v>
+        <v>P(-2.0 &lt;= X &lt;= 2.0)</v>
       </c>
       <c r="J49" s="13">
         <f>J48-J47</f>
-        <v>0.84044954869656885</v>
+        <v>0.95431979627459751</v>
       </c>
       <c r="N49" s="38">
         <v>-0.6</v>
@@ -22013,11 +22009,11 @@
       </c>
       <c r="F12" t="str">
         <f>"F(X&lt;=" &amp; TEXT(standard_normal_start_value, "0.0") &amp; ") = "</f>
-        <v xml:space="preserve">F(X&lt;=-3.2) = </v>
+        <v xml:space="preserve">F(X&lt;=-2.0) = </v>
       </c>
       <c r="H12" t="str">
         <f>"F(X&lt;=" &amp; TEXT(standard_normal_end_value, "0.0") &amp; ") = "</f>
-        <v xml:space="preserve">F(X&lt;=1.0) = </v>
+        <v xml:space="preserve">F(X&lt;=2.0) = </v>
       </c>
       <c r="L12" t="s">
         <v>23</v>
@@ -22059,8 +22055,8 @@
       <c r="B15" s="48">
         <v>-2.5</v>
       </c>
-      <c r="F15">
-        <v>3.5307226240226058E-4</v>
+      <c r="F15" t="e">
+        <v>#N/A</v>
       </c>
       <c r="H15" t="e">
         <v>#N/A</v>
@@ -22128,11 +22124,11 @@
       </c>
       <c r="M19" s="20">
         <f>standard_normal_start_value</f>
-        <v>-3.2</v>
+        <v>-2</v>
       </c>
       <c r="N19" s="17">
         <f t="shared" si="0"/>
-        <v>999.99999999999977</v>
+        <v>2500</v>
       </c>
       <c r="O19" s="40">
         <v>0</v>
@@ -22154,15 +22150,15 @@
       </c>
       <c r="M20" s="20">
         <f>standard_normal_start_value</f>
-        <v>-3.2</v>
+        <v>-2</v>
       </c>
       <c r="N20" s="17">
         <f t="shared" si="0"/>
-        <v>999.99999999999977</v>
+        <v>2500</v>
       </c>
       <c r="O20" s="50">
         <f t="shared" ref="O20:O51" si="1">_xlfn.NORM.DIST(M20, standard_normal_mean, standard_normal_std_dev, FALSE)</f>
-        <v>2.3840882014648404E-3</v>
+        <v>5.3990966513188063E-2</v>
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.35">
@@ -22180,15 +22176,15 @@
       </c>
       <c r="M21">
         <f t="shared" ref="M21:M52" si="2">standard_normal_start_value + (standard_normal_end_value-standard_normal_start_value)*L21</f>
-        <v>-3.1160000000000001</v>
+        <v>-1.92</v>
       </c>
       <c r="N21" s="17">
         <f t="shared" si="0"/>
-        <v>1104.9999999999998</v>
+        <v>2600</v>
       </c>
       <c r="O21" s="50">
         <f t="shared" si="1"/>
-        <v>3.108339764219602E-3</v>
+        <v>6.3156561435198655E-2</v>
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.35">
@@ -22206,15 +22202,15 @@
       </c>
       <c r="M22">
         <f t="shared" si="2"/>
-        <v>-3.032</v>
+        <v>-1.84</v>
       </c>
       <c r="N22" s="17">
         <f t="shared" si="0"/>
-        <v>1210</v>
+        <v>2700</v>
       </c>
       <c r="O22" s="50">
         <f t="shared" si="1"/>
-        <v>4.0241139330445116E-3</v>
+        <v>7.3406812581656891E-2</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.35">
@@ -22232,15 +22228,15 @@
       </c>
       <c r="M23">
         <f t="shared" si="2"/>
-        <v>-2.9480000000000004</v>
+        <v>-1.76</v>
       </c>
       <c r="N23" s="17">
         <f t="shared" si="0"/>
-        <v>1314.9999999999995</v>
+        <v>2800.0000000000005</v>
       </c>
       <c r="O23" s="50">
         <f t="shared" si="1"/>
-        <v>5.1730618423228838E-3</v>
+        <v>8.4776361308022227E-2</v>
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.35">
@@ -22258,15 +22254,15 @@
       </c>
       <c r="M24">
         <f t="shared" si="2"/>
-        <v>-2.8640000000000003</v>
+        <v>-1.68</v>
       </c>
       <c r="N24" s="17">
         <f t="shared" si="0"/>
-        <v>1419.9999999999995</v>
+        <v>2900.0000000000005</v>
       </c>
       <c r="O24" s="50">
         <f t="shared" si="1"/>
-        <v>6.6032948606762768E-3</v>
+        <v>9.7282269331467511E-2</v>
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.35">
@@ -22284,15 +22280,15 @@
       </c>
       <c r="M25">
         <f t="shared" si="2"/>
-        <v>-2.7800000000000002</v>
+        <v>-1.6</v>
       </c>
       <c r="N25" s="17">
         <f t="shared" si="0"/>
-        <v>1524.9999999999998</v>
+        <v>3000</v>
       </c>
       <c r="O25" s="50">
         <f t="shared" si="1"/>
-        <v>8.3696891546530226E-3</v>
+        <v>0.11092083467945554</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.35">
@@ -22310,23 +22306,23 @@
       </c>
       <c r="M26">
         <f t="shared" si="2"/>
-        <v>-2.6960000000000002</v>
+        <v>-1.52</v>
       </c>
       <c r="N26" s="17">
         <f t="shared" si="0"/>
-        <v>1629.9999999999998</v>
+        <v>3100</v>
       </c>
       <c r="O26" s="50">
         <f t="shared" si="1"/>
-        <v>1.0534006580763203E-2</v>
+        <v>0.12566463678908815</v>
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B27" s="48">
         <v>-1.3</v>
       </c>
-      <c r="F27" t="e">
-        <v>#N/A</v>
+      <c r="F27">
+        <v>2.2499686285702227E-2</v>
       </c>
       <c r="H27" t="e">
         <v>#N/A</v>
@@ -22336,15 +22332,15 @@
       </c>
       <c r="M27">
         <f t="shared" si="2"/>
-        <v>-2.6120000000000001</v>
+        <v>-1.44</v>
       </c>
       <c r="N27" s="17">
         <f t="shared" si="0"/>
-        <v>1734.9999999999998</v>
+        <v>3200</v>
       </c>
       <c r="O27" s="50">
         <f t="shared" si="1"/>
-        <v>1.3164775575909208E-2</v>
+        <v>0.14145996522483878</v>
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.35">
@@ -22362,15 +22358,15 @@
       </c>
       <c r="M28">
         <f t="shared" si="2"/>
-        <v>-2.528</v>
+        <v>-1.3599999999999999</v>
       </c>
       <c r="N28" s="17">
         <f t="shared" si="0"/>
-        <v>1840</v>
+        <v>3300</v>
       </c>
       <c r="O28" s="50">
         <f t="shared" si="1"/>
-        <v>1.6336873743791409E-2</v>
+        <v>0.15822479037038306</v>
       </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.35">
@@ -22388,15 +22384,15 @@
       </c>
       <c r="M29">
         <f t="shared" si="2"/>
-        <v>-2.444</v>
+        <v>-1.28</v>
       </c>
       <c r="N29" s="17">
         <f t="shared" si="0"/>
-        <v>1945</v>
+        <v>3399.9999999999995</v>
       </c>
       <c r="O29" s="50">
         <f t="shared" si="1"/>
-        <v>2.0130755012470348E-2</v>
+        <v>0.17584743029766237</v>
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.35">
@@ -22414,15 +22410,15 @@
       </c>
       <c r="M30">
         <f t="shared" si="2"/>
-        <v>-2.3600000000000003</v>
+        <v>-1.2000000000000002</v>
       </c>
       <c r="N30" s="17">
         <f t="shared" si="0"/>
-        <v>2049.9999999999995</v>
+        <v>3500</v>
       </c>
       <c r="O30" s="50">
         <f t="shared" si="1"/>
-        <v>2.4631269306382486E-2</v>
+        <v>0.19418605498321292</v>
       </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.35">
@@ -22440,15 +22436,15 @@
       </c>
       <c r="M31">
         <f t="shared" si="2"/>
-        <v>-2.2760000000000002</v>
+        <v>-1.1200000000000001</v>
       </c>
       <c r="N31" s="17">
         <f t="shared" si="0"/>
-        <v>2154.9999999999995</v>
+        <v>3600</v>
       </c>
       <c r="O31" s="50">
         <f t="shared" si="1"/>
-        <v>2.9926032260731268E-2</v>
+        <v>0.21306914677571784</v>
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.35">
@@ -22466,15 +22462,15 @@
       </c>
       <c r="M32">
         <f t="shared" si="2"/>
-        <v>-2.1920000000000002</v>
+        <v>-1.04</v>
       </c>
       <c r="N32" s="17">
         <f t="shared" si="0"/>
-        <v>2260</v>
+        <v>3700</v>
       </c>
       <c r="O32" s="50">
         <f t="shared" si="1"/>
-        <v>3.6103317036217532E-2</v>
+        <v>0.2322970047433662</v>
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.35">
@@ -22492,15 +22488,15 @@
       </c>
       <c r="M33">
         <f t="shared" si="2"/>
-        <v>-2.1080000000000005</v>
+        <v>-0.96000000000000019</v>
       </c>
       <c r="N33" s="17">
         <f t="shared" si="0"/>
-        <v>2364.9999999999995</v>
+        <v>3800</v>
       </c>
       <c r="O33" s="50">
         <f t="shared" si="1"/>
-        <v>4.3249459914653815E-2</v>
+        <v>0.25164434109811712</v>
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.35">
@@ -22518,15 +22514,15 @@
       </c>
       <c r="M34">
         <f t="shared" si="2"/>
-        <v>-2.024</v>
+        <v>-0.88000000000000012</v>
       </c>
       <c r="N34" s="17">
         <f t="shared" si="0"/>
-        <v>2470</v>
+        <v>3900</v>
       </c>
       <c r="O34" s="50">
         <f t="shared" si="1"/>
-        <v>5.1445795857717774E-2</v>
+        <v>0.27086397179833799</v>
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.35">
@@ -22544,15 +22540,15 @@
       </c>
       <c r="M35">
         <f t="shared" si="2"/>
-        <v>-1.9400000000000002</v>
+        <v>-0.8</v>
       </c>
       <c r="N35" s="17">
         <f t="shared" si="0"/>
-        <v>2574.9999999999995</v>
+        <v>4000</v>
       </c>
       <c r="O35" s="50">
         <f t="shared" si="1"/>
-        <v>6.0765168954564755E-2</v>
+        <v>0.28969155276148273</v>
       </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.35">
@@ -22570,15 +22566,15 @@
       </c>
       <c r="M36">
         <f t="shared" si="2"/>
-        <v>-1.8560000000000001</v>
+        <v>-0.72</v>
       </c>
       <c r="N36" s="17">
         <f t="shared" si="0"/>
-        <v>2680</v>
+        <v>4100</v>
       </c>
       <c r="O36" s="50">
         <f t="shared" si="1"/>
-        <v>7.1268094569544471E-2</v>
+        <v>0.30785126046985295</v>
       </c>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.35">
@@ -22596,15 +22592,15 @@
       </c>
       <c r="M37">
         <f t="shared" si="2"/>
-        <v>-1.772</v>
+        <v>-0.6399999999999999</v>
       </c>
       <c r="N37" s="17">
         <f t="shared" si="0"/>
-        <v>2784.9999999999995</v>
+        <v>4200</v>
       </c>
       <c r="O37" s="50">
         <f t="shared" si="1"/>
-        <v>8.2998683462853398E-2</v>
+        <v>0.32506226408408218</v>
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.35">
@@ -22622,15 +22618,15 @@
       </c>
       <c r="M38">
         <f t="shared" si="2"/>
-        <v>-1.6879999999999999</v>
+        <v>-0.55999999999999983</v>
       </c>
       <c r="N38" s="17">
         <f t="shared" si="0"/>
-        <v>2890.0000000000005</v>
+        <v>4300.0000000000009</v>
       </c>
       <c r="O38" s="50">
         <f t="shared" si="1"/>
-        <v>9.5980471200316733E-2</v>
+        <v>0.34104578863035256</v>
       </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.35">
@@ -22648,15 +22644,15 @@
       </c>
       <c r="M39">
         <f t="shared" si="2"/>
-        <v>-1.6039999999999999</v>
+        <v>-0.47999999999999976</v>
       </c>
       <c r="N39" s="17">
         <f t="shared" si="0"/>
-        <v>2995</v>
+        <v>4400.0000000000009</v>
       </c>
       <c r="O39" s="50">
         <f t="shared" si="1"/>
-        <v>0.11021232645560165</v>
+        <v>0.35553252850599715</v>
       </c>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.35">
@@ -22674,15 +22670,15 @@
       </c>
       <c r="M40">
         <f t="shared" si="2"/>
-        <v>-1.5199999999999998</v>
+        <v>-0.39999999999999969</v>
       </c>
       <c r="N40" s="17">
         <f t="shared" si="0"/>
-        <v>3100.0000000000005</v>
+        <v>4500.0000000000009</v>
       </c>
       <c r="O40" s="50">
         <f t="shared" si="1"/>
-        <v>0.12566463678908815</v>
+        <v>0.36827014030332339</v>
       </c>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.35">
@@ -22700,15 +22696,15 @@
       </c>
       <c r="M41">
         <f t="shared" si="2"/>
-        <v>-1.4359999999999997</v>
+        <v>-0.31999999999999962</v>
       </c>
       <c r="N41" s="17">
         <f t="shared" si="0"/>
-        <v>3205</v>
+        <v>4600.0000000000009</v>
       </c>
       <c r="O41" s="50">
         <f t="shared" si="1"/>
-        <v>0.14227598757521717</v>
+        <v>0.37903052615270172</v>
       </c>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.35">
@@ -22726,15 +22722,15 @@
       </c>
       <c r="M42">
         <f t="shared" si="2"/>
-        <v>-1.3519999999999996</v>
+        <v>-0.23999999999999955</v>
       </c>
       <c r="N42" s="17">
         <f t="shared" si="0"/>
-        <v>3310.0000000000009</v>
+        <v>4700.0000000000009</v>
       </c>
       <c r="O42" s="50">
         <f t="shared" si="1"/>
-        <v>0.15995055652810913</v>
+        <v>0.38761661512501422</v>
       </c>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.35">
@@ -22752,15 +22748,15 @@
       </c>
       <c r="M43">
         <f t="shared" si="2"/>
-        <v>-1.2679999999999996</v>
+        <v>-0.15999999999999948</v>
       </c>
       <c r="N43" s="17">
         <f t="shared" si="0"/>
-        <v>3415.0000000000005</v>
+        <v>4800.0000000000009</v>
       </c>
       <c r="O43" s="50">
         <f t="shared" si="1"/>
-        <v>0.17855644072480606</v>
+        <v>0.39386836156854088</v>
       </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.35">
@@ -22778,15 +22774,15 @@
       </c>
       <c r="M44">
         <f t="shared" si="2"/>
-        <v>-1.1839999999999993</v>
+        <v>-7.9999999999999405E-2</v>
       </c>
       <c r="N44" s="17">
         <f t="shared" si="0"/>
-        <v>3520.0000000000009</v>
+        <v>4900.0000000000009</v>
       </c>
       <c r="O44" s="50">
         <f t="shared" si="1"/>
-        <v>0.19792511375148231</v>
+        <v>0.3976677055116089</v>
       </c>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.35">
@@ -22804,15 +22800,15 @@
       </c>
       <c r="M45">
         <f t="shared" si="2"/>
-        <v>-1.0999999999999996</v>
+        <v>0</v>
       </c>
       <c r="N45" s="17">
         <f t="shared" si="0"/>
-        <v>3625.0000000000005</v>
+        <v>5000</v>
       </c>
       <c r="O45" s="50">
         <f t="shared" si="1"/>
-        <v>0.21785217703255064</v>
+        <v>0.3989422804014327</v>
       </c>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.35">
@@ -22830,15 +22826,15 @@
       </c>
       <c r="M46">
         <f t="shared" si="2"/>
-        <v>-1.0159999999999996</v>
+        <v>8.0000000000000515E-2</v>
       </c>
       <c r="N46" s="17">
         <f t="shared" si="0"/>
-        <v>3730.0000000000005</v>
+        <v>5100</v>
       </c>
       <c r="O46" s="50">
         <f t="shared" si="1"/>
-        <v>0.23809952196345452</v>
+        <v>0.39766770551160885</v>
       </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.35">
@@ -22856,15 +22852,15 @@
       </c>
       <c r="M47">
         <f t="shared" si="2"/>
-        <v>-0.9319999999999995</v>
+        <v>0.16000000000000059</v>
       </c>
       <c r="N47" s="17">
         <f t="shared" si="0"/>
-        <v>3835.0000000000005</v>
+        <v>5200</v>
       </c>
       <c r="O47" s="50">
         <f t="shared" si="1"/>
-        <v>0.25839895964984855</v>
+        <v>0.39386836156854077</v>
       </c>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.35">
@@ -22882,15 +22878,15 @@
       </c>
       <c r="M48">
         <f t="shared" si="2"/>
-        <v>-0.84799999999999942</v>
+        <v>0.24000000000000066</v>
       </c>
       <c r="N48" s="17">
         <f t="shared" si="0"/>
-        <v>3940.0000000000009</v>
+        <v>5300</v>
       </c>
       <c r="O48" s="50">
         <f t="shared" si="1"/>
-        <v>0.27845730543813202</v>
+        <v>0.38761661512501405</v>
       </c>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.35">
@@ -22908,15 +22904,15 @@
       </c>
       <c r="M49">
         <f t="shared" si="2"/>
-        <v>-0.76399999999999935</v>
+        <v>0.32000000000000073</v>
       </c>
       <c r="N49" s="17">
         <f t="shared" si="0"/>
-        <v>4045.0000000000009</v>
+        <v>5400</v>
       </c>
       <c r="O49" s="50">
         <f t="shared" si="1"/>
-        <v>0.29796282958145476</v>
+        <v>0.37903052615270161</v>
       </c>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.35">
@@ -22934,15 +22930,15 @@
       </c>
       <c r="M50">
         <f t="shared" si="2"/>
-        <v>-0.67999999999999927</v>
+        <v>0.4000000000000008</v>
       </c>
       <c r="N50" s="17">
         <f t="shared" si="0"/>
-        <v>4150.0000000000009</v>
+        <v>5500</v>
       </c>
       <c r="O50" s="50">
         <f t="shared" si="1"/>
-        <v>0.31659290771089293</v>
+        <v>0.36827014030332322</v>
       </c>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.35">
@@ -22960,15 +22956,15 @@
       </c>
       <c r="M51">
         <f t="shared" si="2"/>
-        <v>-0.5959999999999992</v>
+        <v>0.48000000000000087</v>
       </c>
       <c r="N51" s="17">
         <f t="shared" si="0"/>
-        <v>4255.0000000000009</v>
+        <v>5600.0000000000009</v>
       </c>
       <c r="O51" s="50">
         <f t="shared" si="1"/>
-        <v>0.33402263020207645</v>
+        <v>0.35553252850599693</v>
       </c>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.35">
@@ -22986,15 +22982,15 @@
       </c>
       <c r="M52">
         <f t="shared" si="2"/>
-        <v>-0.51199999999999912</v>
+        <v>0.56000000000000094</v>
       </c>
       <c r="N52" s="17">
         <f t="shared" si="0"/>
-        <v>4360.0000000000009</v>
+        <v>5700.0000000000009</v>
       </c>
       <c r="O52" s="50">
         <f t="shared" ref="O52:O70" si="3">_xlfn.NORM.DIST(M52, standard_normal_mean, standard_normal_std_dev, FALSE)</f>
-        <v>0.34993406316463388</v>
+        <v>0.3410457886303524</v>
       </c>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.35">
@@ -23012,15 +23008,15 @@
       </c>
       <c r="M53">
         <f t="shared" ref="M53:M69" si="4">standard_normal_start_value + (standard_normal_end_value-standard_normal_start_value)*L53</f>
-        <v>-0.42799999999999905</v>
+        <v>0.64000000000000101</v>
       </c>
       <c r="N53" s="17">
         <f t="shared" si="0"/>
-        <v>4465.0000000000009</v>
+        <v>5800.0000000000009</v>
       </c>
       <c r="O53" s="50">
         <f t="shared" si="3"/>
-        <v>0.36402580055756051</v>
+        <v>0.32506226408408195</v>
       </c>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.35">
@@ -23038,15 +23034,15 @@
       </c>
       <c r="M54">
         <f t="shared" si="4"/>
-        <v>-0.34399999999999897</v>
+        <v>0.72000000000000108</v>
       </c>
       <c r="N54" s="17">
         <f t="shared" si="0"/>
-        <v>4570.0000000000009</v>
+        <v>5900.0000000000009</v>
       </c>
       <c r="O54" s="50">
         <f t="shared" si="3"/>
-        <v>0.37602241116559926</v>
+        <v>0.30785126046985267</v>
       </c>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.35">
@@ -23064,15 +23060,15 @@
       </c>
       <c r="M55">
         <f t="shared" si="4"/>
-        <v>-0.2599999999999989</v>
+        <v>0.80000000000000115</v>
       </c>
       <c r="N55" s="17">
         <f t="shared" si="0"/>
-        <v>4675.0000000000018</v>
+        <v>6000.0000000000009</v>
       </c>
       <c r="O55" s="50">
         <f t="shared" si="3"/>
-        <v>0.38568336919181617</v>
+        <v>0.28969155276148251</v>
       </c>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.35">
@@ -23090,15 +23086,15 @@
       </c>
       <c r="M56">
         <f t="shared" si="4"/>
-        <v>-0.17599999999999882</v>
+        <v>0.88000000000000123</v>
       </c>
       <c r="N56" s="17">
         <f t="shared" si="0"/>
-        <v>4780.0000000000018</v>
+        <v>6100.0000000000009</v>
       </c>
       <c r="O56" s="50">
         <f t="shared" si="3"/>
-        <v>0.39281106505576868</v>
+        <v>0.27086397179833777</v>
       </c>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.35">
@@ -23108,23 +23104,23 @@
       <c r="F57" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H57">
-        <v>0.84080262095897107</v>
+      <c r="H57" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L57">
         <v>0.74000000000000032</v>
       </c>
       <c r="M57">
         <f t="shared" si="4"/>
-        <v>-9.1999999999998749E-2</v>
+        <v>0.9600000000000013</v>
       </c>
       <c r="N57" s="17">
         <f t="shared" si="0"/>
-        <v>4885.0000000000018</v>
+        <v>6200.0000000000009</v>
       </c>
       <c r="O57" s="50">
         <f t="shared" si="3"/>
-        <v>0.39725752412951854</v>
+        <v>0.25164434109811679</v>
       </c>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.35">
@@ -23142,15 +23138,15 @@
       </c>
       <c r="M58">
         <f t="shared" si="4"/>
-        <v>-7.9999999999986748E-3</v>
+        <v>1.0400000000000014</v>
       </c>
       <c r="N58" s="17">
         <f t="shared" si="0"/>
-        <v>4990.0000000000018</v>
+        <v>6300.0000000000009</v>
       </c>
       <c r="O58" s="50">
         <f t="shared" si="3"/>
-        <v>0.39892951445271613</v>
+        <v>0.23229700474336587</v>
       </c>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.35">
@@ -23168,15 +23164,15 @@
       </c>
       <c r="M59">
         <f t="shared" si="4"/>
-        <v>7.60000000000014E-2</v>
+        <v>1.1200000000000014</v>
       </c>
       <c r="N59" s="17">
         <f t="shared" si="0"/>
-        <v>5095.0000000000018</v>
+        <v>6400.0000000000009</v>
       </c>
       <c r="O59" s="50">
         <f t="shared" si="3"/>
-        <v>0.3977917971930241</v>
+        <v>0.21306914677571753</v>
       </c>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.35">
@@ -23194,15 +23190,15 @@
       </c>
       <c r="M60">
         <f t="shared" si="4"/>
-        <v>0.16000000000000147</v>
+        <v>1.2000000000000015</v>
       </c>
       <c r="N60" s="17">
         <f t="shared" si="0"/>
-        <v>5200.0000000000027</v>
+        <v>6500.0000000000009</v>
       </c>
       <c r="O60" s="50">
         <f t="shared" si="3"/>
-        <v>0.39386836156854071</v>
+        <v>0.19418605498321259</v>
       </c>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.35">
@@ -23220,15 +23216,15 @@
       </c>
       <c r="M61">
         <f t="shared" si="4"/>
-        <v>0.24400000000000155</v>
+        <v>1.2800000000000016</v>
       </c>
       <c r="N61" s="17">
         <f t="shared" si="0"/>
-        <v>5305.0000000000018</v>
+        <v>6600.0000000000018</v>
       </c>
       <c r="O61" s="50">
         <f t="shared" si="3"/>
-        <v>0.38724158378602552</v>
+        <v>0.17584743029766201</v>
       </c>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.35">
@@ -23246,15 +23242,15 @@
       </c>
       <c r="M62">
         <f t="shared" si="4"/>
-        <v>0.32800000000000162</v>
+        <v>1.3600000000000017</v>
       </c>
       <c r="N62" s="17">
         <f t="shared" si="0"/>
-        <v>5410.0000000000018</v>
+        <v>6700.0000000000018</v>
       </c>
       <c r="O62" s="50">
         <f t="shared" si="3"/>
-        <v>0.3780493511810093</v>
+        <v>0.1582247903703827</v>
       </c>
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.35">
@@ -23272,15 +23268,15 @@
       </c>
       <c r="M63">
         <f t="shared" si="4"/>
-        <v>0.4120000000000017</v>
+        <v>1.4400000000000017</v>
       </c>
       <c r="N63" s="17">
         <f t="shared" si="0"/>
-        <v>5515.0000000000018</v>
+        <v>6800.0000000000018</v>
       </c>
       <c r="O63" s="50">
         <f t="shared" si="3"/>
-        <v>0.36648029179111724</v>
+        <v>0.14145996522483845</v>
       </c>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.35">
@@ -23298,15 +23294,15 @@
       </c>
       <c r="M64">
         <f t="shared" si="4"/>
-        <v>0.49600000000000177</v>
+        <v>1.5200000000000018</v>
       </c>
       <c r="N64" s="17">
         <f t="shared" si="0"/>
-        <v>5620.0000000000027</v>
+        <v>6900.0000000000018</v>
       </c>
       <c r="O64" s="50">
         <f t="shared" si="3"/>
-        <v>0.35276733986812903</v>
+        <v>0.12566463678908782</v>
       </c>
     </row>
     <row r="65" spans="2:15" x14ac:dyDescent="0.35">
@@ -23324,15 +23320,15 @@
       </c>
       <c r="M65">
         <f t="shared" si="4"/>
-        <v>0.58000000000000185</v>
+        <v>1.6000000000000019</v>
       </c>
       <c r="N65" s="17">
         <f t="shared" si="0"/>
-        <v>5725.0000000000027</v>
+        <v>7000.0000000000018</v>
       </c>
       <c r="O65" s="50">
         <f t="shared" si="3"/>
-        <v>0.3371799438223802</v>
+        <v>0.11092083467945524</v>
       </c>
     </row>
     <row r="66" spans="2:15" x14ac:dyDescent="0.35">
@@ -23350,15 +23346,15 @@
       </c>
       <c r="M66">
         <f t="shared" si="4"/>
-        <v>0.66400000000000192</v>
+        <v>1.6800000000000019</v>
       </c>
       <c r="N66" s="17">
         <f t="shared" si="0"/>
-        <v>5830.0000000000018</v>
+        <v>7100.0000000000018</v>
       </c>
       <c r="O66" s="50">
         <f t="shared" si="3"/>
-        <v>0.32001528035959664</v>
+        <v>9.7282269331467178E-2</v>
       </c>
     </row>
     <row r="67" spans="2:15" x14ac:dyDescent="0.35">
@@ -23368,23 +23364,23 @@
       <c r="F67" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H67" t="e">
-        <v>#N/A</v>
+      <c r="H67">
+        <v>0.97681948256029971</v>
       </c>
       <c r="L67">
         <v>0.9400000000000005</v>
       </c>
       <c r="M67">
         <f t="shared" si="4"/>
-        <v>0.748000000000002</v>
+        <v>1.760000000000002</v>
       </c>
       <c r="N67" s="17">
         <f t="shared" si="0"/>
-        <v>5935.0000000000027</v>
+        <v>7200.0000000000018</v>
       </c>
       <c r="O67" s="50">
         <f t="shared" si="3"/>
-        <v>0.30158887407374935</v>
+        <v>8.4776361308021936E-2</v>
       </c>
     </row>
     <row r="68" spans="2:15" x14ac:dyDescent="0.35">
@@ -23402,15 +23398,15 @@
       </c>
       <c r="M68">
         <f t="shared" si="4"/>
-        <v>0.83200000000000252</v>
+        <v>1.8400000000000021</v>
       </c>
       <c r="N68" s="17">
         <f t="shared" si="0"/>
-        <v>6040.0000000000027</v>
+        <v>7300.0000000000018</v>
       </c>
       <c r="O68" s="50">
         <f t="shared" si="3"/>
-        <v>0.2822250340447619</v>
+        <v>7.3406812581656614E-2</v>
       </c>
     </row>
     <row r="69" spans="2:15" x14ac:dyDescent="0.35">
@@ -23428,15 +23424,15 @@
       </c>
       <c r="M69">
         <f t="shared" si="4"/>
-        <v>0.91600000000000215</v>
+        <v>1.9200000000000021</v>
       </c>
       <c r="N69" s="17">
         <f t="shared" si="0"/>
-        <v>6145.0000000000027</v>
+        <v>7400.0000000000018</v>
       </c>
       <c r="O69" s="50">
         <f t="shared" si="3"/>
-        <v>0.2622475082437396</v>
+        <v>6.3156561435198391E-2</v>
       </c>
     </row>
     <row r="70" spans="2:15" x14ac:dyDescent="0.35">
@@ -23454,15 +23450,15 @@
       </c>
       <c r="M70" s="20">
         <f>standard_normal_end_value</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N70" s="17">
         <f t="shared" si="0"/>
-        <v>6250</v>
+        <v>7500</v>
       </c>
       <c r="O70" s="50">
         <f t="shared" si="3"/>
-        <v>0.24197072451914337</v>
+        <v>5.3990966513188063E-2</v>
       </c>
     </row>
     <row r="71" spans="2:15" x14ac:dyDescent="0.35">
@@ -23477,11 +23473,11 @@
       </c>
       <c r="M71" s="20">
         <f>standard_normal_end_value</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N71" s="17">
         <f t="shared" si="0"/>
-        <v>6250</v>
+        <v>7500</v>
       </c>
       <c r="O71" s="40">
         <v>0</v>

--- a/WebsiteCreator/spreadsheets/MA-S3.xlsx
+++ b/WebsiteCreator/spreadsheets/MA-S3.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="4807" documentId="11_F25DC773A252ABDACC10483119D84B8A5ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79E98EB8-7A40-4E98-80B2-B8C47B029178}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TableOfContents" sheetId="15" r:id="rId1"/>
@@ -46,7 +46,7 @@
     <definedName name="uniform_selector_values">_xlfn.ANCHORARRAY(Workings_Uniform!$B$5)</definedName>
     <definedName name="uniform_start_value">Uniform!$C$15</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -15789,8 +15789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{379EDE0B-8881-46F2-A537-5E9CD009C9A4}">
   <dimension ref="B2:B13"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15879,7 +15879,7 @@
   <dimension ref="B1:S56"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16905,7 +16905,7 @@
   <dimension ref="B1:S57"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17835,7 +17835,7 @@
   <dimension ref="B2:O70"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19624,7 +19624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7ACF966-92B6-4200-95C4-6DFCF4598438}">
   <dimension ref="B1:S89"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
